--- a/data/financial_statements/sofp/CSGP.xlsx
+++ b/data/financial_statements/sofp/CSGP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4774000000</v>
+        <v>4774465000</v>
       </c>
       <c r="C2">
-        <v>3964000000</v>
+        <v>3964116000</v>
       </c>
       <c r="D2">
-        <v>3929000000</v>
+        <v>3929097000</v>
       </c>
       <c r="E2">
-        <v>3827000000</v>
+        <v>3827126000</v>
       </c>
       <c r="F2">
-        <v>3762000000</v>
+        <v>3761587000</v>
       </c>
       <c r="G2">
         <v>3674909000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>157000000</v>
+        <v>157048000</v>
       </c>
       <c r="C3">
-        <v>161000000</v>
+        <v>161451000</v>
       </c>
       <c r="D3">
-        <v>138000000</v>
+        <v>134978000</v>
       </c>
       <c r="E3">
-        <v>125000000</v>
+        <v>124817000</v>
       </c>
       <c r="F3">
-        <v>116000000</v>
+        <v>115651000</v>
       </c>
       <c r="G3">
         <v>108269000</v>
@@ -855,8 +966,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>75000000</v>
@@ -926,23 +1037,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>5007000000</v>
+        <v>5006587000</v>
       </c>
       <c r="C5">
-        <v>4181000000</v>
+        <v>4180761000</v>
       </c>
       <c r="D5">
-        <v>4100000000</v>
+        <v>4100258000</v>
       </c>
       <c r="E5">
-        <v>3988000000</v>
+        <v>3988125000</v>
       </c>
       <c r="F5">
-        <v>3915000000</v>
+        <v>3914837000</v>
       </c>
       <c r="G5">
         <v>3817931000</v>
@@ -1048,23 +1159,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>401000000</v>
+        <v>306319000</v>
       </c>
       <c r="C6">
-        <v>397000000</v>
+        <v>298361000</v>
       </c>
       <c r="D6">
-        <v>379000000</v>
+        <v>283718000</v>
       </c>
       <c r="E6">
-        <v>372000000</v>
+        <v>271431000</v>
       </c>
       <c r="F6">
-        <v>345000000</v>
+        <v>238866000</v>
       </c>
       <c r="G6">
         <v>239125000</v>
@@ -1170,8 +1281,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="M7">
         <v>10070000</v>
@@ -1259,23 +1370,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2645000000</v>
+        <v>2644971000</v>
       </c>
       <c r="C8">
-        <v>2699000000</v>
+        <v>2699421000</v>
       </c>
       <c r="D8">
-        <v>2729000000</v>
+        <v>2729111000</v>
       </c>
       <c r="E8">
-        <v>2757000000</v>
+        <v>2756677000</v>
       </c>
       <c r="F8">
-        <v>2741000000</v>
+        <v>2741414000</v>
       </c>
       <c r="G8">
         <v>2770631000</v>
@@ -1381,8 +1492,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>5032000</v>
@@ -1470,23 +1581,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>147000000</v>
+        <v>18877000</v>
       </c>
       <c r="C10">
-        <v>137000000</v>
+        <v>18898000</v>
       </c>
       <c r="D10">
-        <v>126000000</v>
+        <v>33682000</v>
       </c>
       <c r="E10">
-        <v>124000000</v>
+        <v>33045000</v>
       </c>
       <c r="F10">
-        <v>113000000</v>
+        <v>31957000</v>
       </c>
       <c r="G10">
         <v>31216000</v>
@@ -1592,8 +1703,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>3199276000</v>
@@ -1714,23 +1825,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>8206000000</v>
+        <v>8205863000</v>
       </c>
       <c r="C12">
-        <v>7421000000</v>
+        <v>7420748000</v>
       </c>
       <c r="D12">
-        <v>7357000000</v>
+        <v>7357442000</v>
       </c>
       <c r="E12">
-        <v>7257000000</v>
+        <v>7256871000</v>
       </c>
       <c r="F12">
-        <v>7131000000</v>
+        <v>7131316000</v>
       </c>
       <c r="G12">
         <v>7075614000</v>
@@ -1836,23 +1947,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>31000000</v>
+        <v>31435000</v>
       </c>
       <c r="C13">
-        <v>32000000</v>
+        <v>32132000</v>
       </c>
       <c r="D13">
-        <v>19000000</v>
+        <v>19191000</v>
       </c>
       <c r="E13">
-        <v>22000000</v>
+        <v>22244000</v>
       </c>
       <c r="F13">
-        <v>17000000</v>
+        <v>17487000</v>
       </c>
       <c r="G13">
         <v>16376000</v>
@@ -1958,8 +2069,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>160316000</v>
@@ -2080,8 +2191,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>34000000</v>
@@ -2178,8 +2289,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>39000</v>
@@ -2279,8 +2390,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>100053000</v>
@@ -2401,8 +2512,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>260000000</v>
@@ -2451,23 +2562,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>326000000</v>
+        <v>325906000</v>
       </c>
       <c r="C19">
-        <v>350000000</v>
+        <v>349950000</v>
       </c>
       <c r="D19">
-        <v>370000000</v>
+        <v>370195000</v>
       </c>
       <c r="E19">
-        <v>339000000</v>
+        <v>338689000</v>
       </c>
       <c r="F19">
-        <v>322000000</v>
+        <v>321517000</v>
       </c>
       <c r="G19">
         <v>328678000</v>
@@ -2573,23 +2684,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1074000000</v>
+        <v>988890000</v>
       </c>
       <c r="C20">
-        <v>1080000000</v>
+        <v>988572000</v>
       </c>
       <c r="D20">
-        <v>1080000000</v>
+        <v>988257000</v>
       </c>
       <c r="E20">
-        <v>1087000000</v>
+        <v>987944000</v>
       </c>
       <c r="F20">
-        <v>1088000000</v>
+        <v>987633000</v>
       </c>
       <c r="G20">
         <v>987325000</v>
@@ -2671,8 +2782,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2751,23 +2862,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>76000000</v>
+        <v>80611000</v>
       </c>
       <c r="C22">
-        <v>83000000</v>
+        <v>87657000</v>
       </c>
       <c r="D22">
-        <v>87000000</v>
+        <v>91756000</v>
       </c>
       <c r="E22">
-        <v>94000000</v>
+        <v>98656000</v>
       </c>
       <c r="F22">
-        <v>81000000</v>
+        <v>83399000</v>
       </c>
       <c r="G22">
         <v>76979000</v>
@@ -2873,23 +2984,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>19000000</v>
+        <v>103544000</v>
       </c>
       <c r="C23">
-        <v>19000000</v>
+        <v>110216000</v>
       </c>
       <c r="D23">
-        <v>18000000</v>
+        <v>109936000</v>
       </c>
       <c r="E23">
-        <v>21000000</v>
+        <v>119910000</v>
       </c>
       <c r="F23">
-        <v>35000000</v>
+        <v>135344000</v>
       </c>
       <c r="G23">
         <v>155405000</v>
@@ -2995,8 +3106,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1173045000</v>
@@ -3117,23 +3228,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>1499000000</v>
+        <v>1498951000</v>
       </c>
       <c r="C25">
-        <v>1536000000</v>
+        <v>1536395000</v>
       </c>
       <c r="D25">
-        <v>1560000000</v>
+        <v>1560144000</v>
       </c>
       <c r="E25">
-        <v>1545000000</v>
+        <v>1545199000</v>
       </c>
       <c r="F25">
-        <v>1528000000</v>
+        <v>1527893000</v>
       </c>
       <c r="G25">
         <v>1548387000</v>
@@ -3239,8 +3350,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E26">
         <v>4253318000</v>
@@ -3271,8 +3382,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4000000</v>
@@ -3330,8 +3441,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1705000000</v>
@@ -3389,8 +3500,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>6707000000</v>
@@ -3448,23 +3559,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>6707000000</v>
+        <v>6706912000</v>
       </c>
       <c r="C30">
-        <v>5884000000</v>
+        <v>5884353000</v>
       </c>
       <c r="D30">
-        <v>5797000000</v>
+        <v>5797298000</v>
       </c>
       <c r="E30">
-        <v>5712000000</v>
+        <v>5711672000</v>
       </c>
       <c r="F30">
-        <v>5603000000</v>
+        <v>5603423000</v>
       </c>
       <c r="G30">
         <v>5527227000</v>
@@ -3570,8 +3681,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>8205863000</v>
@@ -3692,8 +3803,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>406619000</v>
@@ -3814,8 +3925,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>4061941000</v>
@@ -3936,23 +4047,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>-3666000000</v>
+        <v>-3751575000</v>
       </c>
       <c r="C34">
-        <v>-2849000000</v>
+        <v>-2940544000</v>
       </c>
       <c r="D34">
-        <v>-2816000000</v>
+        <v>-2907840000</v>
       </c>
       <c r="E34">
-        <v>-2714000000</v>
+        <v>-2813182000</v>
       </c>
       <c r="F34">
-        <v>-2644000000</v>
+        <v>-2743954000</v>
       </c>
       <c r="G34">
         <v>-2658584000</v>
@@ -4058,23 +4169,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>1108000000</v>
+        <v>1022890000</v>
       </c>
       <c r="C35">
-        <v>1115000000</v>
+        <v>1023572000</v>
       </c>
       <c r="D35">
-        <v>1113000000</v>
+        <v>1021257000</v>
       </c>
       <c r="E35">
-        <v>1113000000</v>
+        <v>1013944000</v>
       </c>
       <c r="F35">
-        <v>1118000000</v>
+        <v>1017633000</v>
       </c>
       <c r="G35">
         <v>1016325000</v>
